--- a/medicine/Mort/Cimetière_Rakowicki/Cimetière_Rakowicki.xlsx
+++ b/medicine/Mort/Cimetière_Rakowicki/Cimetière_Rakowicki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Rakowicki</t>
+          <t>Cimetière_Rakowicki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Rakowicki (en polonais : Cmentarz Rakowicki) à Cracovie, conçu au début du XIXe siècle (1801-1802), est la nécropole de prestige de l'ancienne capitale de la Pologne et un des cimetières les plus célèbres du pays. Ici reposent aussi bien des citoyens anonymes comme des personnalités connues de tous : des créateurs de culture, scientifiques, des militants pour l’indépendance, des activistes politiques ou sociaux, des insurgés, des soldats de deux guerres.
 Le cimetière constitue un monument d’une grande valeur historique. Une partie de tombes est l’œuvre des architectes et des sculpteurs connus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Rakowicki</t>
+          <t>Cimetière_Rakowicki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Rakowicki est le plus ancien cimetière municipal de la ville de Cracovie. Fondé au XIXe siècle pour remplacer les cimetières paroissiaux, il est rapidement devenu un espace symbolique regorgeant de chefs-d’œuvre d’architecture et de sculpture funéraires.
 Les tombes et les plaques les plus anciennes sont disposées le long du mur situé à côté de l’entrée principale, avec la tombe  de la première personne inhumée – Apolonia Bursikowa, jeune bourgeoise de Cracovie morte de la tuberculose en janvier 1803. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Rakowicki</t>
+          <t>Cimetière_Rakowicki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Personnalités inhumées au cimetière Rakowicki</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Y sont entre autres enterrés :
 Bronisław Abramowicz (1837–1912), peintre
